--- a/SuppXLS/Scen_SYS_CarbonBudget-CAP24_300MT.xlsx
+++ b/SuppXLS/Scen_SYS_CarbonBudget-CAP24_300MT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\times-ireland-model-2019-2023calib\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50A7FA-6EB7-4D2C-8058-73DD8D76D52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A701AC4B-C21E-4410-92ED-6F63A58F7B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
@@ -759,7 +759,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -842,14 +842,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1151,7 +1143,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>21771</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1212,9 +1204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1186357</xdr:colOff>
+      <xdr:colOff>1189622</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>90129</xdr:rowOff>
+      <xdr:rowOff>84685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1544,20 +1536,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="1" max="4" width="21.69140625" customWidth="1"/>
+    <col min="5" max="6" width="14.15234375" customWidth="1"/>
+    <col min="7" max="7" width="12.15234375" customWidth="1"/>
+    <col min="8" max="10" width="8.15234375" customWidth="1"/>
+    <col min="11" max="11" width="9.69140625" customWidth="1"/>
+    <col min="12" max="12" width="8.15234375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.3828125" customWidth="1"/>
+    <col min="15" max="15" width="13.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1585,7 +1577,7 @@
       <c r="Y1" s="19"/>
       <c r="Z1" s="19"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1613,7 +1605,7 @@
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1641,7 +1633,7 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1669,7 +1661,7 @@
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1697,7 +1689,7 @@
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1725,7 +1717,7 @@
       <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1753,7 +1745,7 @@
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1781,7 +1773,7 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -1809,7 +1801,7 @@
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -1837,7 +1829,7 @@
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1865,7 +1857,7 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1893,7 +1885,7 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1921,7 +1913,7 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1949,7 +1941,7 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -1977,7 +1969,7 @@
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="37" t="s">
         <v>90</v>
       </c>
@@ -2007,7 +1999,7 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -2035,7 +2027,7 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -2063,7 +2055,7 @@
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25" t="s">
         <v>91</v>
       </c>
@@ -2095,7 +2087,7 @@
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25" t="s">
         <v>92</v>
       </c>
@@ -2127,7 +2119,7 @@
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25" t="s">
         <v>93</v>
       </c>
@@ -2159,7 +2151,7 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -2187,7 +2179,7 @@
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
         <v>94</v>
       </c>
@@ -2219,7 +2211,7 @@
       <c r="Y23" s="19"/>
       <c r="Z23" s="19"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -2247,7 +2239,7 @@
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -2275,7 +2267,7 @@
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25" t="s">
         <v>95</v>
       </c>
@@ -2307,7 +2299,7 @@
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -2335,7 +2327,7 @@
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -2363,7 +2355,7 @@
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25" t="s">
         <v>96</v>
       </c>
@@ -2393,7 +2385,7 @@
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25" t="s">
         <v>97</v>
       </c>
@@ -2425,7 +2417,7 @@
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25" t="s">
         <v>99</v>
       </c>
@@ -2457,7 +2449,7 @@
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="31"/>
       <c r="B32" s="32" t="s">
         <v>101</v>
@@ -2487,7 +2479,7 @@
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2515,7 +2507,7 @@
       <c r="Y33" s="19"/>
       <c r="Z33" s="19"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -2543,7 +2535,7 @@
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -2571,7 +2563,7 @@
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -2599,7 +2591,7 @@
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -2627,7 +2619,7 @@
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -2655,7 +2647,7 @@
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -2683,7 +2675,7 @@
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -2711,7 +2703,7 @@
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -2739,7 +2731,7 @@
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -2767,7 +2759,7 @@
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2795,7 +2787,7 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -2823,7 +2815,7 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -2851,7 +2843,7 @@
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -2879,7 +2871,7 @@
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -2907,7 +2899,7 @@
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -2935,7 +2927,7 @@
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -2963,7 +2955,7 @@
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -2991,7 +2983,7 @@
       <c r="Y50" s="19"/>
       <c r="Z50" s="19"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -3019,7 +3011,7 @@
       <c r="Y51" s="19"/>
       <c r="Z51" s="19"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -3047,7 +3039,7 @@
       <c r="Y52" s="19"/>
       <c r="Z52" s="19"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -3075,7 +3067,7 @@
       <c r="Y53" s="19"/>
       <c r="Z53" s="19"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -3103,7 +3095,7 @@
       <c r="Y54" s="19"/>
       <c r="Z54" s="19"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -3131,7 +3123,7 @@
       <c r="Y55" s="19"/>
       <c r="Z55" s="19"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -3159,7 +3151,7 @@
       <c r="Y56" s="19"/>
       <c r="Z56" s="19"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -3187,7 +3179,7 @@
       <c r="Y57" s="19"/>
       <c r="Z57" s="19"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -3215,7 +3207,7 @@
       <c r="Y58" s="19"/>
       <c r="Z58" s="19"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -3243,7 +3235,7 @@
       <c r="Y59" s="19"/>
       <c r="Z59" s="19"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -3271,7 +3263,7 @@
       <c r="Y60" s="19"/>
       <c r="Z60" s="19"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -3299,7 +3291,7 @@
       <c r="Y61" s="19"/>
       <c r="Z61" s="19"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -3327,7 +3319,7 @@
       <c r="Y62" s="19"/>
       <c r="Z62" s="19"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -3355,7 +3347,7 @@
       <c r="Y63" s="19"/>
       <c r="Z63" s="19"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -3383,7 +3375,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -3411,7 +3403,7 @@
       <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -3439,7 +3431,7 @@
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -3467,7 +3459,7 @@
       <c r="Y67" s="19"/>
       <c r="Z67" s="19"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -3495,7 +3487,7 @@
       <c r="Y68" s="19"/>
       <c r="Z68" s="19"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -3523,7 +3515,7 @@
       <c r="Y69" s="19"/>
       <c r="Z69" s="19"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -3551,7 +3543,7 @@
       <c r="Y70" s="19"/>
       <c r="Z70" s="19"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -3579,7 +3571,7 @@
       <c r="Y71" s="19"/>
       <c r="Z71" s="19"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -3607,7 +3599,7 @@
       <c r="Y72" s="19"/>
       <c r="Z72" s="19"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -3635,7 +3627,7 @@
       <c r="Y73" s="19"/>
       <c r="Z73" s="19"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -3663,7 +3655,7 @@
       <c r="Y74" s="19"/>
       <c r="Z74" s="19"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -3691,7 +3683,7 @@
       <c r="Y75" s="19"/>
       <c r="Z75" s="19"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -3719,7 +3711,7 @@
       <c r="Y76" s="19"/>
       <c r="Z76" s="19"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -3747,7 +3739,7 @@
       <c r="Y77" s="19"/>
       <c r="Z77" s="19"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -3775,7 +3767,7 @@
       <c r="Y78" s="19"/>
       <c r="Z78" s="19"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -3803,7 +3795,7 @@
       <c r="Y79" s="19"/>
       <c r="Z79" s="19"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -3831,7 +3823,7 @@
       <c r="Y80" s="19"/>
       <c r="Z80" s="19"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -3859,7 +3851,7 @@
       <c r="Y81" s="19"/>
       <c r="Z81" s="19"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -3887,7 +3879,7 @@
       <c r="Y82" s="19"/>
       <c r="Z82" s="19"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -3915,7 +3907,7 @@
       <c r="Y83" s="19"/>
       <c r="Z83" s="19"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -3943,7 +3935,7 @@
       <c r="Y84" s="19"/>
       <c r="Z84" s="19"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -3971,7 +3963,7 @@
       <c r="Y85" s="19"/>
       <c r="Z85" s="19"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -3999,7 +3991,7 @@
       <c r="Y86" s="19"/>
       <c r="Z86" s="19"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -4027,7 +4019,7 @@
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -4055,7 +4047,7 @@
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -4083,7 +4075,7 @@
       <c r="Y89" s="19"/>
       <c r="Z89" s="19"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -4111,7 +4103,7 @@
       <c r="Y90" s="19"/>
       <c r="Z90" s="19"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -4139,7 +4131,7 @@
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -4167,7 +4159,7 @@
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -4195,7 +4187,7 @@
       <c r="Y93" s="19"/>
       <c r="Z93" s="19"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -4223,7 +4215,7 @@
       <c r="Y94" s="19"/>
       <c r="Z94" s="19"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -4251,7 +4243,7 @@
       <c r="Y95" s="19"/>
       <c r="Z95" s="19"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -4279,7 +4271,7 @@
       <c r="Y96" s="19"/>
       <c r="Z96" s="19"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -4307,7 +4299,7 @@
       <c r="Y97" s="19"/>
       <c r="Z97" s="19"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -4335,7 +4327,7 @@
       <c r="Y98" s="19"/>
       <c r="Z98" s="19"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -4392,39 +4384,39 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.15234375" customWidth="1"/>
+    <col min="2" max="2" width="11.69140625" customWidth="1"/>
+    <col min="3" max="3" width="3.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3828125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.69140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.15234375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.3046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.69140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.15234375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.69140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.53515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.84375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.53515625" customWidth="1"/>
+    <col min="25" max="25" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.15234375" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.69140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="str" cm="1">
         <f t="array" ref="C3">IF(LEFT(INDEX(C5:C7,$A$4),1)&lt;&gt;"*",INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
@@ -4538,12 +4530,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -4658,7 +4650,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4775,7 +4767,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -4892,7 +4884,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -4900,7 +4892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -4908,7 +4900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -4916,7 +4908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -4924,7 +4916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -4932,7 +4924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -4940,7 +4932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -4948,7 +4940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -4956,7 +4948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -4964,7 +4956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -4972,7 +4964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -4980,7 +4972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -4988,7 +4980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -4996,7 +4988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -5004,7 +4996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -5012,7 +5004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -5020,7 +5012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -5028,7 +5020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -5036,7 +5028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -5044,7 +5036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -5052,7 +5044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -5060,7 +5052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -5068,7 +5060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -5076,7 +5068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -5084,7 +5076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
@@ -5092,7 +5084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -5100,7 +5092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>59</v>
       </c>
@@ -5108,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>60</v>
       </c>
@@ -5134,7 +5126,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>21771</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5154,64 +5146,64 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B4:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.15234375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.53515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>61</v>
       </c>
       <c r="C4" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN("_",TRUE,"UC","CB",ROUND(C7,0),"Mt",C6)</f>
-        <v>UC_CB_160_Mt_2021-2025</v>
+        <v>UC_CB_165_Mt_2021-2025</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:E4" si="0" xml:space="preserve"> _xlfn.TEXTJOIN("_",TRUE,"UC","CB",ROUND(D7,0),"Mt",D6)</f>
-        <v>UC_CB_109_Mt_2026-2030</v>
+        <v>UC_CB_111_Mt_2026-2030</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>UC_CB_31_Mt_2031-2050</v>
+        <v>UC_CB_24_Mt_2031-2050</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4" si="1" xml:space="preserve"> _xlfn.TEXTJOIN("_",TRUE,"UC","CB",ROUND(F7,0),"Mt",F6)</f>
         <v>UC_CB_0_Mt_2051-2100</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>68</v>
       </c>
       <c r="C5" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(" ",TRUE,"Carbon budget",ROUND(C7,0),"Mt",C6)</f>
-        <v>Carbon budget 160 Mt 2021-2025</v>
+        <v>Carbon budget 165 Mt 2021-2025</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:F5" si="2" xml:space="preserve"> _xlfn.TEXTJOIN(" ",TRUE,"Carbon budget",ROUND(D7,0),"Mt",D6)</f>
-        <v>Carbon budget 109 Mt 2026-2030</v>
+        <v>Carbon budget 111 Mt 2026-2030</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="2"/>
-        <v>Carbon budget 31 Mt 2031-2050</v>
+        <v>Carbon budget 24 Mt 2031-2050</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
         <v>Carbon budget 0 Mt 2051-2100</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -5228,27 +5220,27 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="17">
         <f>D24</f>
-        <v>160</v>
+        <v>165.2</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ref="D7:E7" si="3">E24</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>23.800000000000011</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -5265,24 +5257,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -5299,7 +5291,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -5316,7 +5308,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -5333,7 +5325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>80</v>
       </c>
@@ -5350,7 +5342,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>76</v>
       </c>
@@ -5367,10 +5359,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C18" s="33"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>110</v>
       </c>
@@ -5378,12 +5370,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C22" s="33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>74</v>
       </c>
@@ -5400,27 +5392,27 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="34">
-        <f>40+54+29+7+30</f>
-        <v>160</v>
+        <f>40+54+29+7+30+5.2</f>
+        <v>165.2</v>
       </c>
       <c r="E24" s="34">
-        <f>20+37+23+5+24</f>
-        <v>109</v>
+        <f>20+37+23+5+24+2</f>
+        <v>111</v>
       </c>
       <c r="F24" s="34">
         <f>D19-D24-E24</f>
-        <v>31</v>
+        <v>23.800000000000011</v>
       </c>
       <c r="G24" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>111</v>
       </c>
@@ -5442,44 +5434,44 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.53515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3828125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="str">
         <f>"~UC_Sets: R_E: "  &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3)</f>
         <v>~UC_Sets: R_E: IE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H4" t="str">
         <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
         <v>~UC_T</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>61</v>
       </c>
@@ -5514,7 +5506,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
@@ -5531,10 +5523,10 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B7" t="str">
         <f>VLOOKUP($B$5, config!$B$4:$F$14,2,FALSE) &amp; "_Single"</f>
-        <v>UC_CB_160_Mt_2021-2025_Single</v>
+        <v>UC_CB_165_Mt_2021-2025_Single</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,2,FALSE)</f>
@@ -5562,15 +5554,15 @@
       </c>
       <c r="K7" s="17">
         <f>VLOOKUP("Value", config!$B$4:$F$14,2,FALSE)*1000</f>
-        <v>160000</v>
+        <v>165200</v>
       </c>
       <c r="L7" t="str">
         <f>VLOOKUP($L$5, config!$B$4:$F$14,2,FALSE) &amp; " - Single"</f>
-        <v>Carbon budget 160 Mt 2021-2025 - Single</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
+        <v>Carbon budget 165 Mt 2021-2025 - Single</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
         <v>112</v>
       </c>
       <c r="C8" t="str">
@@ -5595,10 +5587,10 @@
       </c>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9" t="str">
         <f>VLOOKUP($B$5, config!$B$4:$F$14,3,FALSE) &amp; "_Single"</f>
-        <v>UC_CB_109_Mt_2026-2030_Single</v>
+        <v>UC_CB_111_Mt_2026-2030_Single</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,3,FALSE)</f>
@@ -5626,15 +5618,15 @@
       </c>
       <c r="K9" s="17">
         <f>VLOOKUP("Value", config!$B$4:$F$14,3,FALSE)*1000</f>
-        <v>109000</v>
+        <v>111000</v>
       </c>
       <c r="L9" t="str">
         <f>VLOOKUP($L$5, config!$B$4:$F$14,3,FALSE) &amp; " - Single"</f>
-        <v>Carbon budget 109 Mt 2026-2030 - Single</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+        <v>Carbon budget 111 Mt 2026-2030 - Single</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
         <v>112</v>
       </c>
       <c r="C10" t="str">
@@ -5659,10 +5651,10 @@
       </c>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11" t="str">
         <f>VLOOKUP($B$5, config!$B$4:$F$14,4,FALSE) &amp; "_Single"</f>
-        <v>UC_CB_31_Mt_2031-2050_Single</v>
+        <v>UC_CB_24_Mt_2031-2050_Single</v>
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,4,FALSE)</f>
@@ -5690,15 +5682,15 @@
       </c>
       <c r="K11" s="17">
         <f>VLOOKUP("Value", config!$B$4:$F$14,4,FALSE)*1000</f>
-        <v>31000</v>
+        <v>23800.000000000011</v>
       </c>
       <c r="L11" t="str">
         <f>VLOOKUP($L$5, config!$B$4:$F$14,4,FALSE) &amp; " - Single"</f>
-        <v>Carbon budget 31 Mt 2031-2050 - Single</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+        <v>Carbon budget 24 Mt 2031-2050 - Single</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>112</v>
       </c>
       <c r="C12" t="str">
@@ -5722,7 +5714,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13" t="str">
         <f>VLOOKUP($B$5, config!$B$4:$F$14,5,FALSE) &amp; "_Single"</f>
         <v>UC_CB_0_Mt_2051-2100_Single</v>
@@ -5760,8 +5752,8 @@
         <v>Carbon budget 0 Mt 2051-2100 - Single</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
         <v>112</v>
       </c>
       <c r="C14" t="str">
@@ -5796,48 +5788,48 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.3046875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3828125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="str">
         <f>"~UC_Sets: R_S: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!D3:AD3)</f>
         <v>~UC_Sets: R_S: National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H4" t="str">
         <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
         <v>~UC_T</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>61</v>
       </c>
@@ -5872,7 +5864,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
@@ -5889,10 +5881,10 @@
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B7" t="str">
         <f>VLOOKUP(B$5, config!$B$4:$F$14,2,FALSE) &amp; "_Multi"</f>
-        <v>UC_CB_160_Mt_2021-2025_Multi</v>
+        <v>UC_CB_165_Mt_2021-2025_Multi</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,2,FALSE)</f>
@@ -5920,15 +5912,15 @@
       </c>
       <c r="K7" s="17">
         <f>VLOOKUP("Value", config!$B$4:$F$14,2,FALSE)*1000</f>
-        <v>160000</v>
+        <v>165200</v>
       </c>
       <c r="L7" t="str">
         <f>VLOOKUP(L$5, config!$B$4:$F$14,2,FALSE) &amp; " - Multi"</f>
-        <v>Carbon budget 160 Mt 2021-2025 - Multi</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+        <v>Carbon budget 165 Mt 2021-2025 - Multi</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
         <v>112</v>
       </c>
       <c r="C8" t="str">
@@ -5953,10 +5945,10 @@
       </c>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9" t="str">
         <f>VLOOKUP(B$5, config!$B$4:$F$14,3,FALSE) &amp; "_Multi"</f>
-        <v>UC_CB_109_Mt_2026-2030_Multi</v>
+        <v>UC_CB_111_Mt_2026-2030_Multi</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,3,FALSE)</f>
@@ -5984,15 +5976,15 @@
       </c>
       <c r="K9" s="17">
         <f>VLOOKUP("Value", config!$B$4:$F$14,3,FALSE)*1000</f>
-        <v>109000</v>
+        <v>111000</v>
       </c>
       <c r="L9" t="str">
         <f>VLOOKUP(L$5, config!$B$4:$F$14,3,FALSE) &amp; " - Multi"</f>
-        <v>Carbon budget 109 Mt 2026-2030 - Multi</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+        <v>Carbon budget 111 Mt 2026-2030 - Multi</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
         <v>112</v>
       </c>
       <c r="C10" t="str">
@@ -6017,10 +6009,10 @@
       </c>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11" t="str">
         <f>VLOOKUP(B$5, config!$B$4:$F$14,4,FALSE) &amp; "_Multi"</f>
-        <v>UC_CB_31_Mt_2031-2050_Multi</v>
+        <v>UC_CB_24_Mt_2031-2050_Multi</v>
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,4,FALSE)</f>
@@ -6048,15 +6040,15 @@
       </c>
       <c r="K11" s="17">
         <f>VLOOKUP("Value", config!$B$4:$F$14,4,FALSE)*1000</f>
-        <v>31000</v>
+        <v>23800.000000000011</v>
       </c>
       <c r="L11" t="str">
         <f>VLOOKUP(L$5, config!$B$4:$F$14,4,FALSE) &amp; " - Multi"</f>
-        <v>Carbon budget 31 Mt 2031-2050 - Multi</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+        <v>Carbon budget 24 Mt 2031-2050 - Multi</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>112</v>
       </c>
       <c r="C12" t="str">
@@ -6081,7 +6073,7 @@
       </c>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13" t="str">
         <f>VLOOKUP(B$5, config!$B$4:$F$14,5,FALSE) &amp; "_Multi"</f>
         <v>UC_CB_0_Mt_2051-2100_Multi</v>
@@ -6119,8 +6111,8 @@
         <v>Carbon budget 0 Mt 2051-2100 - Multi</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
         <v>112</v>
       </c>
       <c r="C14" t="str">
@@ -6159,20 +6151,20 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="15" t="s">
         <v>85</v>
       </c>
@@ -6197,7 +6189,7 @@
         <v>National</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C4" s="8" t="s">
         <v>87</v>
       </c>
